--- a/resources/n5_grammar.xlsx
+++ b/resources/n5_grammar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximvy\Documents\GitHub\Japanese-App\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED51E67-8A7F-4ED1-85CC-9BA452E30500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160610C-E8EA-4160-8E96-9410869B789E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="296">
   <si>
     <t>が</t>
   </si>
@@ -150,9 +150,6 @@
     <t>くださいます</t>
   </si>
   <si>
-    <t>くださいましょうか</t>
-  </si>
-  <si>
     <t>くらい</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>あのネコはどこにいっているん___</t>
   </si>
   <si>
-    <t>Where is that cat going?</t>
-  </si>
-  <si>
     <t>Tomorrow we have a test in English</t>
   </si>
   <si>
@@ -381,9 +375,6 @@
     <t>I watch tv at home</t>
   </si>
   <si>
-    <t>I don’t want to go to school today</t>
-  </si>
-  <si>
     <t>I go diving in Okinawa every year</t>
   </si>
   <si>
@@ -762,6 +753,129 @@
     <t>私はへいしになりたいです</t>
   </si>
   <si>
+    <t>topic marker particle</t>
+  </si>
+  <si>
+    <t>subject marker particle</t>
+  </si>
+  <si>
+    <t>possessive particle</t>
+  </si>
+  <si>
+    <t>too, also, as well</t>
+  </si>
+  <si>
+    <t>in, at, on, by, with, via</t>
+  </si>
+  <si>
+    <t>emphasizes direction over arrival</t>
+  </si>
+  <si>
+    <t>destination particle; in, at , on, to</t>
+  </si>
+  <si>
+    <t>connecting particle; and, with, as</t>
+  </si>
+  <si>
+    <t>the way of doing something</t>
+  </si>
+  <si>
+    <t>because, since, from</t>
+  </si>
+  <si>
+    <t>still, not yet</t>
+  </si>
+  <si>
+    <t>but, however, although</t>
+  </si>
+  <si>
+    <t>very, awfully, exceedingly</t>
+  </si>
+  <si>
+    <t>plan to, intend to</t>
+  </si>
+  <si>
+    <t>want to do something</t>
+  </si>
+  <si>
+    <t>when, at this time</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>too long</t>
+  </si>
+  <si>
+    <t>want to become</t>
+  </si>
+  <si>
+    <t>Where is that cat probably going?</t>
+  </si>
+  <si>
+    <t>I think, it seems, probably, right?</t>
+  </si>
+  <si>
+    <t>there is, is (non-living things)</t>
+  </si>
+  <si>
+    <t>there is, is, to be (living things)</t>
+  </si>
+  <si>
+    <t>already, anymore, again, other</t>
+  </si>
+  <si>
+    <t>would you please</t>
+  </si>
+  <si>
+    <t>くださいませんか</t>
+  </si>
+  <si>
+    <t>くださいましょう</t>
+  </si>
+  <si>
+    <t>about, how long (どれくらい)</t>
+  </si>
+  <si>
+    <t>to draw (かくのが）</t>
+  </si>
+  <si>
+    <t>walking, while walking (歩きながら)</t>
+  </si>
+  <si>
+    <t>busy</t>
+  </si>
+  <si>
+    <t>before, in front of</t>
+  </si>
+  <si>
+    <t>calmly, gently, quietly, peacefully</t>
+  </si>
+  <si>
+    <t>meet, see</t>
+  </si>
+  <si>
+    <t>to do, to perform</t>
+  </si>
+  <si>
+    <t>not say</t>
+  </si>
+  <si>
+    <t>sit down</t>
+  </si>
+  <si>
+    <t>not , not clean (じゃありません)</t>
+  </si>
+  <si>
+    <t>want to say</t>
+  </si>
+  <si>
+    <t>Let us talk</t>
+  </si>
+  <si>
+    <t>do not forget</t>
+  </si>
+  <si>
     <t>There is a meeting at 10 oclock</t>
   </si>
   <si>
@@ -774,9 +888,15 @@
     <t>I am going to study English today</t>
   </si>
   <si>
+    <t>I do not want to go to school today</t>
+  </si>
+  <si>
     <t>I am planning to spend my birthday alone</t>
   </si>
   <si>
+    <t>There is wine in the fridge, so let us sit there and drink</t>
+  </si>
+  <si>
     <t>Do not worry so much, he will definitely come</t>
   </si>
   <si>
@@ -793,9 +913,6 @@
   </si>
   <si>
     <t>It is already 12 oclock, but my luggage has not arrived yet</t>
-  </si>
-  <si>
-    <t>There is wine in the fridge, so let us sit there and drink</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,14 +1258,15 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="74.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="68.7109375" customWidth="1"/>
+    <col min="10" max="10" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1166,16 +1284,19 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1195,18 +1316,21 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>135</v>
-      </c>
-      <c r="H2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1224,18 +1348,21 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1253,16 +1380,19 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1282,16 +1412,19 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1311,18 +1444,21 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1340,16 +1476,19 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="J7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1369,16 +1508,19 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1398,18 +1540,21 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1427,18 +1572,21 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="J10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1456,16 +1604,19 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="J11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1485,18 +1636,21 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1514,18 +1668,21 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="J13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1543,18 +1700,21 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="H14" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="J14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1572,16 +1732,19 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="H15" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1601,76 +1764,85 @@
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="H16" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
         <v>148</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>149</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" t="s">
-        <v>208</v>
-      </c>
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -1688,18 +1860,21 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="H19" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1717,18 +1892,21 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="H20" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="J20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -1746,18 +1924,21 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1775,18 +1956,21 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="H22" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="J22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1804,18 +1988,21 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1833,18 +2020,21 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1862,18 +2052,21 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1891,18 +2084,21 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1920,18 +2116,21 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1949,18 +2148,21 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1978,18 +2180,21 @@
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -2007,18 +2212,21 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="H30" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -2036,18 +2244,21 @@
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="H31" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -2059,85 +2270,94 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" t="s">
         <v>134</v>
       </c>
-      <c r="H33" t="s">
-        <v>230</v>
-      </c>
-      <c r="I33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="I34" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" t="s">
         <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2152,448 +2372,496 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="H35" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="J35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>271</v>
+      </c>
+      <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" t="s">
-        <v>227</v>
-      </c>
-      <c r="I36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="I37" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>282</v>
+      </c>
+      <c r="H38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
         <v>58</v>
       </c>
-      <c r="B38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>272</v>
+      </c>
+      <c r="H39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>273</v>
+      </c>
+      <c r="H40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" t="s">
+        <v>219</v>
+      </c>
+      <c r="J41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>170</v>
       </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" t="s">
-        <v>225</v>
-      </c>
-      <c r="I38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" t="s">
-        <v>224</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" t="s">
+        <v>275</v>
+      </c>
+      <c r="H42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" t="s">
-        <v>223</v>
-      </c>
-      <c r="I40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" t="s">
-        <v>222</v>
-      </c>
-      <c r="I41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>221</v>
-      </c>
-      <c r="D42" t="s">
-        <v>220</v>
-      </c>
-      <c r="E42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" t="s">
-        <v>217</v>
-      </c>
-      <c r="I42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>276</v>
+      </c>
+      <c r="H43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" t="s">
-        <v>216</v>
-      </c>
-      <c r="I43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s">
+        <v>264</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" t="s">
+        <v>212</v>
+      </c>
+      <c r="J44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" t="s">
+        <v>277</v>
+      </c>
+      <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
         <v>174</v>
       </c>
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" t="s">
-        <v>215</v>
-      </c>
-      <c r="I44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" t="s">
-        <v>137</v>
-      </c>
-      <c r="H45" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" t="s">
-        <v>212</v>
-      </c>
-      <c r="I47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>177</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
         <v>179</v>
       </c>
-      <c r="E48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G48" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" t="s">
-        <v>211</v>
-      </c>
-      <c r="I48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" t="s">
-        <v>210</v>
-      </c>
-      <c r="I49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>180</v>
       </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" t="s">
-        <v>183</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
-        <v>133</v>
+        <v>206</v>
+      </c>
+      <c r="J50" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
